--- a/global_data/day_data/002444.xlsx
+++ b/global_data/day_data/002444.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3584"/>
+  <dimension ref="A1:I3586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -104344,6 +104346,64 @@
         <v>0.01686247272604374</v>
       </c>
     </row>
+    <row r="3585" spans="1:9">
+      <c r="A3585" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B3585">
+        <v>23.01</v>
+      </c>
+      <c r="C3585">
+        <v>23.16</v>
+      </c>
+      <c r="D3585">
+        <v>22.66</v>
+      </c>
+      <c r="E3585">
+        <v>22.91</v>
+      </c>
+      <c r="F3585">
+        <v>16364460</v>
+      </c>
+      <c r="G3585">
+        <v>375017449</v>
+      </c>
+      <c r="H3585">
+        <v>1143168402</v>
+      </c>
+      <c r="I3585">
+        <v>0.01431500378366826</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:9">
+      <c r="A3586" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B3586">
+        <v>22.86</v>
+      </c>
+      <c r="C3586">
+        <v>23.69</v>
+      </c>
+      <c r="D3586">
+        <v>22.73</v>
+      </c>
+      <c r="E3586">
+        <v>23.28</v>
+      </c>
+      <c r="F3586">
+        <v>24579949</v>
+      </c>
+      <c r="G3586">
+        <v>573291946</v>
+      </c>
+      <c r="H3586">
+        <v>1143168402</v>
+      </c>
+      <c r="I3586">
+        <v>0.02150159937678194</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
